--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -1214,7 +1214,7 @@
         <v>228</v>
       </c>
       <c r="I29">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">

--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -785,7 +785,7 @@
         <v>70</v>
       </c>
       <c r="I14">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -1214,7 +1214,7 @@
         <v>228</v>
       </c>
       <c r="I29">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">

--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -1214,7 +1214,7 @@
         <v>228</v>
       </c>
       <c r="I29">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">

--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -785,7 +785,7 @@
         <v>70</v>
       </c>
       <c r="I14">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1214,7 +1214,7 @@
         <v>228</v>
       </c>
       <c r="I29">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">

--- a/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
+++ b/eDNA/example_output/Taxonomic_assignments/SampleReport_taxonomic_ID.xlsx
@@ -574,7 +574,7 @@
         <v>2273</v>
       </c>
       <c r="I8">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -634,7 +634,7 @@
         <v>66</v>
       </c>
       <c r="I10">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>679</v>
       </c>
       <c r="I11">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="I20">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21">
@@ -911,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="I22">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23">
@@ -935,7 +935,7 @@
         <v>1562</v>
       </c>
       <c r="I23">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24">
@@ -1063,7 +1063,7 @@
         <v>189</v>
       </c>
       <c r="I29">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1421,7 @@
         <v>424</v>
       </c>
       <c r="I43">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44">
@@ -1532,7 +1532,7 @@
         <v>86</v>
       </c>
       <c r="I47">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="48">
@@ -1580,7 +1580,7 @@
         <v>297</v>
       </c>
       <c r="I49">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="50">
@@ -1628,7 +1628,7 @@
         <v>859</v>
       </c>
       <c r="I51">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52">
@@ -1734,7 +1734,7 @@
         <v>1562</v>
       </c>
       <c r="I55">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
@@ -1782,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="I57">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="58">
@@ -1974,7 +1974,7 @@
         <v>1266</v>
       </c>
       <c r="I65">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66">
@@ -2056,7 +2056,7 @@
         <v>404</v>
       </c>
       <c r="I68">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="69">
@@ -2253,7 +2253,7 @@
         <v>579</v>
       </c>
       <c r="I76">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77">
@@ -2277,7 +2277,7 @@
         <v>52</v>
       </c>
       <c r="I77">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="78">
@@ -2409,7 +2409,7 @@
         <v>107</v>
       </c>
       <c r="I82">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="83">
@@ -2558,7 +2558,7 @@
         <v>37</v>
       </c>
       <c r="I88">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="89">
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="I93">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="94">
@@ -3099,7 +3099,7 @@
         <v>122</v>
       </c>
       <c r="I109">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110">
@@ -3123,7 +3123,7 @@
         <v>317</v>
       </c>
       <c r="I110">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="111">
@@ -3216,7 +3216,7 @@
         <v>1357</v>
       </c>
       <c r="I114">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115">
@@ -3372,7 +3372,7 @@
         <v>1035</v>
       </c>
       <c r="I120">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
@@ -3422,7 +3422,7 @@
         <v>1035</v>
       </c>
       <c r="I122">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123">
@@ -3446,7 +3446,7 @@
         <v>157</v>
       </c>
       <c r="I123">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="124">
@@ -3494,7 +3494,7 @@
         <v>1066</v>
       </c>
       <c r="I125">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126">
@@ -3638,7 +3638,7 @@
         <v>317</v>
       </c>
       <c r="I131">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="132">
@@ -3662,7 +3662,7 @@
         <v>107</v>
       </c>
       <c r="I132">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="133">
@@ -3842,7 +3842,7 @@
         <v>114</v>
       </c>
       <c r="I139">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="140">
@@ -3943,7 +3943,7 @@
         <v>122</v>
       </c>
       <c r="I143">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144">
@@ -3991,7 +3991,7 @@
         <v>257</v>
       </c>
       <c r="I145">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="146">
@@ -4020,7 +4020,7 @@
         <v>170</v>
       </c>
       <c r="I146">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="I149">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="150">
@@ -4152,7 +4152,7 @@
         <v>74</v>
       </c>
       <c r="I151">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="152">
@@ -4311,7 +4311,7 @@
         <v>47</v>
       </c>
       <c r="I157">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="158">
@@ -4441,7 +4441,7 @@
         <v>310</v>
       </c>
       <c r="I162">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="163">
@@ -4489,7 +4489,7 @@
         <v>231</v>
       </c>
       <c r="I164">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="165">
@@ -4595,7 +4595,7 @@
         <v>529</v>
       </c>
       <c r="I168">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169">
@@ -4667,7 +4667,7 @@
         <v>277</v>
       </c>
       <c r="I171">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="172">
@@ -4741,7 +4741,7 @@
         <v>705</v>
       </c>
       <c r="I174">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175">
@@ -4757,7 +4757,7 @@
         <v>203</v>
       </c>
       <c r="I175">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="176">
@@ -4877,7 +4877,7 @@
         <v>55</v>
       </c>
       <c r="I180">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="181">
@@ -5007,7 +5007,7 @@
         <v>125</v>
       </c>
       <c r="I185">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="186">
@@ -5137,7 +5137,7 @@
         <v>679</v>
       </c>
       <c r="I190">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191">
@@ -5161,7 +5161,7 @@
         <v>155</v>
       </c>
       <c r="I191">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="192">
@@ -5185,7 +5185,7 @@
         <v>45</v>
       </c>
       <c r="I192">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="193">
@@ -5713,7 +5713,7 @@
         <v>49</v>
       </c>
       <c r="I213">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="214">
@@ -5737,7 +5737,7 @@
         <v>170</v>
       </c>
       <c r="I214">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="215">
@@ -5761,7 +5761,7 @@
         <v>351</v>
       </c>
       <c r="I215">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="216">
@@ -5785,7 +5785,7 @@
         <v>253</v>
       </c>
       <c r="I216">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217">
@@ -5907,7 +5907,7 @@
         <v>102</v>
       </c>
       <c r="I221">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="222">
@@ -5931,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="I222">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="223">
@@ -6277,7 +6277,7 @@
         <v>114</v>
       </c>
       <c r="I236">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="237">
@@ -6301,7 +6301,7 @@
         <v>256</v>
       </c>
       <c r="I237">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="238">
@@ -6325,7 +6325,7 @@
         <v>681</v>
       </c>
       <c r="I238">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="239">
@@ -6551,7 +6551,7 @@
         <v>2273</v>
       </c>
       <c r="I247">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248">
@@ -6599,7 +6599,7 @@
         <v>1415</v>
       </c>
       <c r="I249">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="250">
@@ -6772,7 +6772,7 @@
         <v>132</v>
       </c>
       <c r="I256">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="257">
@@ -6796,7 +6796,7 @@
         <v>579</v>
       </c>
       <c r="I257">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="258">
@@ -7096,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="I269">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="270">
@@ -7202,7 +7202,7 @@
         <v>153</v>
       </c>
       <c r="I273">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="274">
@@ -7289,7 +7289,7 @@
         <v>15</v>
       </c>
       <c r="I276">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="277">
@@ -7323,7 +7323,7 @@
         <v>62</v>
       </c>
       <c r="I277">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="278">
@@ -7522,7 +7522,7 @@
         <v>178</v>
       </c>
       <c r="I285">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="286">
@@ -7710,7 +7710,7 @@
         <v>859</v>
       </c>
       <c r="I292">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293">
@@ -7883,7 +7883,7 @@
         <v>104</v>
       </c>
       <c r="I299">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="300">
@@ -7907,7 +7907,7 @@
         <v>784</v>
       </c>
       <c r="I300">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="301">
@@ -7955,7 +7955,7 @@
         <v>424</v>
       </c>
       <c r="I302">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="303">
@@ -8114,7 +8114,7 @@
         <v>618</v>
       </c>
       <c r="I308">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309">
@@ -8162,7 +8162,7 @@
         <v>164</v>
       </c>
       <c r="I310">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="311">
@@ -8412,7 +8412,7 @@
         <v>81</v>
       </c>
       <c r="I320">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="321">
@@ -8446,7 +8446,7 @@
         <v>374</v>
       </c>
       <c r="I321">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="322">
@@ -8793,7 +8793,7 @@
         <v>253</v>
       </c>
       <c r="I334">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="335">
@@ -9005,7 +9005,7 @@
         <v>127</v>
       </c>
       <c r="I342">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="343">
@@ -9247,7 +9247,7 @@
         <v>54</v>
       </c>
       <c r="I352">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="353">
@@ -9326,7 +9326,7 @@
         <v>147</v>
       </c>
       <c r="I355">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="356">
@@ -9446,7 +9446,7 @@
         <v>152</v>
       </c>
       <c r="I360">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="361">
@@ -9470,7 +9470,7 @@
         <v>445</v>
       </c>
       <c r="I361">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="362">
@@ -9579,7 +9579,7 @@
         <v>157</v>
       </c>
       <c r="I366">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="367">
@@ -9908,7 +9908,7 @@
         <v>32</v>
       </c>
       <c r="I379">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="380">
@@ -10081,7 +10081,7 @@
         <v>297</v>
       </c>
       <c r="I386">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="387">
@@ -10317,7 +10317,7 @@
         <v>545</v>
       </c>
       <c r="I395">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="396">
@@ -10341,7 +10341,7 @@
         <v>107</v>
       </c>
       <c r="I396">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="397">
@@ -10453,7 +10453,7 @@
         <v>310</v>
       </c>
       <c r="I401">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="402">
@@ -10493,7 +10493,7 @@
         <v>128</v>
       </c>
       <c r="I403">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="404">
@@ -10969,7 +10969,7 @@
         <v>529</v>
       </c>
       <c r="I422">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="423">
@@ -11061,7 +11061,7 @@
         <v>794</v>
       </c>
       <c r="I425">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="426">
@@ -11321,7 +11321,7 @@
         <v>148</v>
       </c>
       <c r="I435">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="436">
@@ -11345,7 +11345,7 @@
         <v>45</v>
       </c>
       <c r="I436">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="437">
@@ -11533,7 +11533,7 @@
         <v>147</v>
       </c>
       <c r="I443">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="444">
@@ -11557,7 +11557,7 @@
         <v>185</v>
       </c>
       <c r="I444">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="445">
@@ -11629,7 +11629,7 @@
         <v>104</v>
       </c>
       <c r="I447">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="448">
@@ -11653,7 +11653,7 @@
         <v>681</v>
       </c>
       <c r="I448">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="449">
@@ -11875,7 +11875,7 @@
         <v>155</v>
       </c>
       <c r="I456">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="457">
@@ -12079,7 +12079,7 @@
         <v>794</v>
       </c>
       <c r="I464">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465">
@@ -12166,7 +12166,7 @@
         <v>507</v>
       </c>
       <c r="I467">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="468">
@@ -12214,7 +12214,7 @@
         <v>148</v>
       </c>
       <c r="I469">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="470">
@@ -12286,7 +12286,7 @@
         <v>1266</v>
       </c>
       <c r="I472">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="473">
@@ -12358,7 +12358,7 @@
         <v>231</v>
       </c>
       <c r="I475">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="476">
@@ -12382,7 +12382,7 @@
         <v>705</v>
       </c>
       <c r="I476">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="477">
@@ -12502,7 +12502,7 @@
         <v>858</v>
       </c>
       <c r="I481">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="482">
@@ -12550,7 +12550,7 @@
         <v>404</v>
       </c>
       <c r="I483">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="484">
@@ -12608,7 +12608,7 @@
         <v>529</v>
       </c>
       <c r="I485">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="486">
@@ -12685,7 +12685,7 @@
         <v>1868</v>
       </c>
       <c r="I488">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="489">
@@ -12796,7 +12796,7 @@
         <v>267</v>
       </c>
       <c r="I492">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="493">
@@ -12868,7 +12868,7 @@
         <v>189</v>
       </c>
       <c r="I495">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="496">
@@ -12916,7 +12916,7 @@
         <v>618</v>
       </c>
       <c r="I497">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="498">
@@ -13022,7 +13022,7 @@
         <v>95</v>
       </c>
       <c r="I501">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="502">
@@ -13152,7 +13152,7 @@
         <v>55</v>
       </c>
       <c r="I506">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="507">
@@ -13215,7 +13215,7 @@
         <v>132</v>
       </c>
       <c r="I508">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="509">
@@ -13287,7 +13287,7 @@
         <v>64</v>
       </c>
       <c r="I511">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="512">
@@ -13369,7 +13369,7 @@
         <v>252</v>
       </c>
       <c r="I514">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="515">
@@ -13739,7 +13739,7 @@
         <v>98</v>
       </c>
       <c r="I529">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="530">
@@ -13937,7 +13937,7 @@
         <v>374</v>
       </c>
       <c r="I536">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="537">
@@ -13985,7 +13985,7 @@
         <v>81</v>
       </c>
       <c r="I538">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="539">
@@ -14197,7 +14197,7 @@
         <v>317</v>
       </c>
       <c r="I546">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="547">
@@ -14221,7 +14221,7 @@
         <v>54</v>
       </c>
       <c r="I547">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="548">
@@ -14418,7 +14418,7 @@
         <v>70</v>
       </c>
       <c r="I555">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="556">
@@ -14466,7 +14466,7 @@
         <v>858</v>
       </c>
       <c r="I557">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="558">
@@ -14562,7 +14562,7 @@
         <v>57</v>
       </c>
       <c r="I561">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="562">
@@ -14813,7 +14813,7 @@
         <v>68</v>
       </c>
       <c r="I570">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="571">
@@ -14847,7 +14847,7 @@
         <v>3</v>
       </c>
       <c r="I571">
-        <v>1052</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="572">
@@ -14876,7 +14876,7 @@
         <v>1415</v>
       </c>
       <c r="I572">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="573">
@@ -14958,7 +14958,7 @@
         <v>2</v>
       </c>
       <c r="I575">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="576">
@@ -15040,7 +15040,7 @@
         <v>626</v>
       </c>
       <c r="I578">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="579">
@@ -15165,7 +15165,7 @@
         <v>62</v>
       </c>
       <c r="I583">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="584">
@@ -15281,7 +15281,7 @@
         <v>132</v>
       </c>
       <c r="I587">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="588">
@@ -15528,7 +15528,7 @@
         <v>91</v>
       </c>
       <c r="I597">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="598">
@@ -15712,7 +15712,7 @@
         <v>360</v>
       </c>
       <c r="I605">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="606">
@@ -16068,7 +16068,7 @@
         <v>360</v>
       </c>
       <c r="I619">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="620">
@@ -16222,7 +16222,7 @@
         <v>52</v>
       </c>
       <c r="I625">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="626">
@@ -16304,7 +16304,7 @@
         <v>64</v>
       </c>
       <c r="I628">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="629">
@@ -16386,7 +16386,7 @@
         <v>57</v>
       </c>
       <c r="I631">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="632">
@@ -16473,7 +16473,7 @@
         <v>52</v>
       </c>
       <c r="I634">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="635">
@@ -16617,7 +16617,7 @@
         <v>1066</v>
       </c>
       <c r="I640">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="641">
@@ -17100,7 +17100,7 @@
         <v>4</v>
       </c>
       <c r="I659">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="660">
@@ -17318,7 +17318,7 @@
         <v>62</v>
       </c>
       <c r="I668">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="669">
@@ -17400,7 +17400,7 @@
         <v>115</v>
       </c>
       <c r="I671">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="672">
@@ -17530,7 +17530,7 @@
         <v>351</v>
       </c>
       <c r="I676">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="677">
@@ -17811,7 +17811,7 @@
         <v>152</v>
       </c>
       <c r="I687">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="688">
@@ -18345,7 +18345,7 @@
         <v>626</v>
       </c>
       <c r="I707">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="708">
@@ -18457,7 +18457,7 @@
         <v>115</v>
       </c>
       <c r="I712">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="713">
@@ -18993,7 +18993,7 @@
         <v>843</v>
       </c>
       <c r="I733">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="734">
@@ -19075,7 +19075,7 @@
         <v>95</v>
       </c>
       <c r="I736">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="737">
@@ -19307,7 +19307,7 @@
         <v>627</v>
       </c>
       <c r="I746">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="747">
@@ -19573,7 +19573,7 @@
         <v>783</v>
       </c>
       <c r="I757">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="758">
@@ -19661,7 +19661,7 @@
         <v>445</v>
       </c>
       <c r="I761">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="762">
@@ -19743,7 +19743,7 @@
         <v>71</v>
       </c>
       <c r="I764">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="765">
@@ -19971,7 +19971,7 @@
         <v>783</v>
       </c>
       <c r="I773">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="774">
@@ -20019,7 +20019,7 @@
         <v>107</v>
       </c>
       <c r="I775">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="776">
@@ -20053,7 +20053,7 @@
         <v>128</v>
       </c>
       <c r="I776">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="777">
@@ -20289,7 +20289,7 @@
         <v>351</v>
       </c>
       <c r="I785">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="786">
@@ -20337,7 +20337,7 @@
         <v>127</v>
       </c>
       <c r="I787">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="788">
@@ -20587,7 +20587,7 @@
         <v>71</v>
       </c>
       <c r="I797">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="798">
@@ -20611,7 +20611,7 @@
         <v>456</v>
       </c>
       <c r="I798">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="799">
@@ -20985,7 +20985,7 @@
         <v>74</v>
       </c>
       <c r="I813">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="814">
@@ -21247,7 +21247,7 @@
         <v>86</v>
       </c>
       <c r="I823">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="824">
@@ -21353,7 +21353,7 @@
         <v>507</v>
       </c>
       <c r="I827">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="828">
@@ -21377,7 +21377,7 @@
         <v>627</v>
       </c>
       <c r="I828">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="829">
@@ -21709,7 +21709,7 @@
         <v>256</v>
       </c>
       <c r="I841">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="842">
@@ -21911,7 +21911,7 @@
         <v>178</v>
       </c>
       <c r="I849">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="850">
@@ -22124,7 +22124,7 @@
         <v>257</v>
       </c>
       <c r="I856">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="857">
@@ -22172,7 +22172,7 @@
         <v>203</v>
       </c>
       <c r="I858">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="859">
@@ -22413,7 +22413,7 @@
         <v>185</v>
       </c>
       <c r="I867">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="868">
@@ -22437,7 +22437,7 @@
         <v>82</v>
       </c>
       <c r="I868">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="869">
@@ -22644,7 +22644,7 @@
         <v>49</v>
       </c>
       <c r="I876">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="877">
@@ -22780,7 +22780,7 @@
         <v>1868</v>
       </c>
       <c r="I882">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="883">
@@ -22934,7 +22934,7 @@
         <v>82</v>
       </c>
       <c r="I888">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="889">
@@ -23100,7 +23100,7 @@
         <v>47</v>
       </c>
       <c r="I894">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="895">
@@ -23196,7 +23196,7 @@
         <v>843</v>
       </c>
       <c r="I898">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="899">
@@ -23244,7 +23244,7 @@
         <v>98</v>
       </c>
       <c r="I900">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="901">
@@ -23337,7 +23337,7 @@
         <v>252</v>
       </c>
       <c r="I904">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="905">
@@ -23457,7 +23457,7 @@
         <v>155</v>
       </c>
       <c r="I909">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="910">
@@ -23703,7 +23703,7 @@
         <v>102</v>
       </c>
       <c r="I918">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="919">
@@ -23948,7 +23948,7 @@
         <v>277</v>
       </c>
       <c r="I928">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="929">
@@ -24092,7 +24092,7 @@
         <v>68</v>
       </c>
       <c r="I934">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="935">
@@ -24184,7 +24184,7 @@
         <v>164</v>
       </c>
       <c r="I937">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="938">
@@ -24330,7 +24330,7 @@
         <v>125</v>
       </c>
       <c r="I943">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="944">
@@ -24354,7 +24354,7 @@
         <v>545</v>
       </c>
       <c r="I944">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="945">
@@ -24434,7 +24434,7 @@
         <v>1357</v>
       </c>
       <c r="I947">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="948">
@@ -24624,7 +24624,7 @@
         <v>456</v>
       </c>
       <c r="I957">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="958">
@@ -24732,7 +24732,7 @@
         <v>98</v>
       </c>
       <c r="I963">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="964">
@@ -24750,7 +24750,7 @@
         <v>66</v>
       </c>
       <c r="I964">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="965">
@@ -24768,7 +24768,7 @@
         <v>52</v>
       </c>
       <c r="I965">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="966">
@@ -24804,7 +24804,7 @@
         <v>17</v>
       </c>
       <c r="I967">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
